--- a/user-resource-description.xlsx
+++ b/user-resource-description.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="1020" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -91,13 +91,115 @@
   </si>
   <si>
     <t>Delete a user specified by its id</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Retrieve a list of issue</t>
+  </si>
+  <si>
+    <t>Create a new issue</t>
+  </si>
+  <si>
+    <t>Retrieve a issue by its id</t>
+  </si>
+  <si>
+    <t>Update a issue specified by its id</t>
+  </si>
+  <si>
+    <t>Delete a issue specified by its id</t>
+  </si>
+  <si>
+    <t>IssueType</t>
+  </si>
+  <si>
+    <t>Retrieve a list of issueType</t>
+  </si>
+  <si>
+    <t>Create a new issueType</t>
+  </si>
+  <si>
+    <t>Retrieve a issueType by its id</t>
+  </si>
+  <si>
+    <t>Update a issueType specified by its id</t>
+  </si>
+  <si>
+    <t>Delete a issueType specified by its id</t>
+  </si>
+  <si>
+    <t>/issues</t>
+  </si>
+  <si>
+    <t>/issues/{id}</t>
+  </si>
+  <si>
+    <t>/issueTypes</t>
+  </si>
+  <si>
+    <t>/issueTypes/{id}</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>/actions</t>
+  </si>
+  <si>
+    <t>/actions/{id}</t>
+  </si>
+  <si>
+    <t>Retrieve a list of action</t>
+  </si>
+  <si>
+    <t>Create a new action</t>
+  </si>
+  <si>
+    <t>Retrieve a action by its id</t>
+  </si>
+  <si>
+    <t>/issues/{idIssueTypes}</t>
+  </si>
+  <si>
+    <t>/actions/{idIssue}</t>
+  </si>
+  <si>
+    <t>Retrieve a action by its idIssue</t>
+  </si>
+  <si>
+    <t>Retrieve a issue by its idIssueType</t>
+  </si>
+  <si>
+    <t>/issues/{id}/comment</t>
+  </si>
+  <si>
+    <t>Create a new comment by its idIssues</t>
+  </si>
+  <si>
+    <t>Retrieve a comment by its idIssues</t>
+  </si>
+  <si>
+    <t>/users/{id}/role</t>
+  </si>
+  <si>
+    <t>Retrieve a role by its idUser</t>
+  </si>
+  <si>
+    <t>Create a new role</t>
+  </si>
+  <si>
+    <t>Update a role specified by its idUser</t>
+  </si>
+  <si>
+    <t>Delete a role specified by its idUser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -146,6 +248,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +263,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -165,10 +273,34 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -179,7 +311,9 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -192,7 +326,9 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -203,7 +339,24 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -211,104 +364,264 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -640,16 +953,16 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F1048576"/>
+  <dimension ref="A2:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
@@ -657,164 +970,613 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="33" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1">
       <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="1048576" spans="5:5">
-      <c r="E1048576" s="1"/>
+    <row r="11" spans="1:6" ht="18">
+      <c r="A11" s="20"/>
+      <c r="B11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18">
+      <c r="A12" s="20"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18">
+      <c r="A13" s="20"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18">
+      <c r="A14" s="21"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="25" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="29" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" ht="26" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" ht="18">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18">
+      <c r="A22" s="12"/>
+      <c r="B22" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18">
+      <c r="A25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" ht="18">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" ht="18">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18">
+      <c r="A32" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18">
+      <c r="A33" s="23"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" ht="18">
+      <c r="A34" s="23"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1">
+      <c r="A35" s="23"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1">
+      <c r="A36" s="23"/>
+      <c r="B36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18">
+      <c r="A37" s="24"/>
+      <c r="B37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1">
+      <c r="A38" s="26"/>
+      <c r="B38" s="25"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1">
+      <c r="A39" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="26">
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A4:A10"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="76" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/user-resource-description.xlsx
+++ b/user-resource-description.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Delete a user specified by its id</t>
   </si>
   <si>
-    <t>Issue</t>
-  </si>
-  <si>
     <t>Retrieve a list of issue</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>/issueTypes/{id}</t>
   </si>
   <si>
-    <t>Action</t>
-  </si>
-  <si>
     <t>/actions</t>
   </si>
   <si>
@@ -159,47 +153,32 @@
     <t>Retrieve a action by its id</t>
   </si>
   <si>
-    <t>/issues/{idIssueTypes}</t>
-  </si>
-  <si>
-    <t>/actions/{idIssue}</t>
-  </si>
-  <si>
-    <t>Retrieve a action by its idIssue</t>
-  </si>
-  <si>
-    <t>Retrieve a issue by its idIssueType</t>
-  </si>
-  <si>
-    <t>/issues/{id}/comment</t>
-  </si>
-  <si>
-    <t>Create a new comment by its idIssues</t>
-  </si>
-  <si>
-    <t>Retrieve a comment by its idIssues</t>
-  </si>
-  <si>
-    <t>/users/{id}/role</t>
-  </si>
-  <si>
-    <t>Retrieve a role by its idUser</t>
-  </si>
-  <si>
-    <t>Create a new role</t>
-  </si>
-  <si>
-    <t>Update a role specified by its idUser</t>
-  </si>
-  <si>
-    <t>Delete a role specified by its idUser</t>
+    <t>Type d'isssue</t>
+  </si>
+  <si>
+    <t>Retrieve a list of issue by IssueType</t>
+  </si>
+  <si>
+    <t>Retrieve a list of issue by User</t>
+  </si>
+  <si>
+    <t>User (id, firstname, lastname, phon, role)</t>
+  </si>
+  <si>
+    <t>Issue (id, author, type, description, coordonées, comment, status, action)</t>
+  </si>
+  <si>
+    <t>IssueType (id, shortName, description)</t>
+  </si>
+  <si>
+    <t>Action (id, actionName, description, author)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -248,12 +227,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -263,7 +236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -389,14 +362,14 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -407,13 +380,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -424,23 +423,42 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -490,51 +508,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -547,32 +570,65 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="57">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="5" builtinId="8" hidden="1"/>
@@ -597,6 +653,10 @@
     <cellStyle name="Collegamento ipertestuale" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="6" builtinId="9" hidden="1"/>
@@ -621,6 +681,10 @@
     <cellStyle name="Collegamento visitato" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -953,10 +1017,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F39"/>
+  <dimension ref="A2:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -970,599 +1034,474 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="33" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1">
       <c r="A4" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1">
       <c r="A5" s="20"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1">
       <c r="A6" s="20"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1">
       <c r="A7" s="20"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1">
       <c r="A8" s="20"/>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1">
       <c r="A9" s="20"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="6" t="s">
+    <row r="10" spans="1:6" ht="33" customHeight="1" thickBot="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18">
-      <c r="A11" s="20"/>
-      <c r="B11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    <row r="11" spans="1:6" ht="25" customHeight="1">
+      <c r="A11" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18">
+      <c r="D11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="29" customHeight="1">
       <c r="A12" s="20"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="26" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="26" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="26" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18">
+      <c r="A16" s="20"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18">
-      <c r="A13" s="20"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="2" t="s">
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18">
+      <c r="A17" s="20"/>
+      <c r="B17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1">
+      <c r="A18" s="20"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18">
-      <c r="A14" s="21"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="2" t="s">
+      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1">
-      <c r="A15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="D19" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18">
+      <c r="A20" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D20" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E20" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="29" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="2" t="s">
+      <c r="F20" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18">
+      <c r="A21" s="34"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" ht="26" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="2" t="s">
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="18">
+      <c r="A22" s="34"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" ht="18">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="2" t="s">
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" ht="18">
+      <c r="A23" s="34"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="D23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18">
+      <c r="A24" s="34"/>
+      <c r="B24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="2" t="s">
+      <c r="D24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18">
+      <c r="A25" s="34"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="2" t="s">
+      <c r="D25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="19" thickBot="1">
+      <c r="A26" s="35"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18">
-      <c r="A22" s="12"/>
-      <c r="B22" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D26" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18">
+      <c r="A27" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18">
+      <c r="A28" s="34"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1">
+      <c r="A29" s="34"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1">
+      <c r="A30" s="34"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18">
+      <c r="A31" s="36"/>
+      <c r="B31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18">
-      <c r="A25" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" ht="18">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:6" ht="18">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18">
-      <c r="A32" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="14" t="s">
+      <c r="D31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18">
-      <c r="A33" s="23"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6" ht="18">
-      <c r="A34" s="23"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1">
-      <c r="A35" s="23"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
-      <c r="A36" s="23"/>
-      <c r="B36" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="18">
-      <c r="A37" s="24"/>
-      <c r="B37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1">
-      <c r="A38" s="26"/>
-      <c r="B38" s="25"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1">
-      <c r="A39" s="25"/>
+    <row r="32" spans="1:6" ht="15" customHeight="1">
+      <c r="A32" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B23:B24"/>
+  <mergeCells count="24">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B10"/>
@@ -1572,11 +1511,25 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/user-resource-description.xlsx
+++ b/user-resource-description.xlsx
@@ -165,13 +165,13 @@
     <t>User (id, firstname, lastname, phon, role)</t>
   </si>
   <si>
-    <t>Issue (id, author, type, description, coordonées, comment, status, action)</t>
-  </si>
-  <si>
     <t>IssueType (id, shortName, description)</t>
   </si>
   <si>
     <t>Action (id, actionName, description, author)</t>
+  </si>
+  <si>
+    <t>Issue (id, author, type, description, coords, comment, status, action)</t>
   </si>
 </sst>
 </file>
@@ -540,24 +540,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -569,9 +584,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -579,53 +591,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
@@ -1020,7 +1020,7 @@
   <dimension ref="A2:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:A31"/>
+      <selection activeCell="A11" sqref="A11:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1034,43 +1034,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="33" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1079,37 +1079,37 @@
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1124,8 +1124,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1142,8 +1142,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1158,69 +1158,69 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1" thickBot="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="26" t="s">
+      <c r="D10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="25" customHeight="1">
-      <c r="A11" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="28" t="s">
+      <c r="A11" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="29" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" ht="26" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="10"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" ht="26" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1232,9 +1232,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="26" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="4" t="s">
         <v>5</v>
       </c>
@@ -1244,8 +1244,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="18">
-      <c r="A16" s="20"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="4" t="s">
         <v>12</v>
       </c>
@@ -1260,8 +1260,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="18">
-      <c r="A17" s="20"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1278,8 +1278,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1294,68 +1294,68 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="26" t="s">
+      <c r="D19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18">
-      <c r="A20" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="28" t="s">
+      <c r="A20" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18">
-      <c r="A21" s="34"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" ht="18">
-      <c r="A22" s="34"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" ht="18">
-      <c r="A23" s="34"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
@@ -1370,8 +1370,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="18">
-      <c r="A24" s="34"/>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1388,8 +1388,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="18">
-      <c r="A25" s="34"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="4" t="s">
         <v>19</v>
       </c>
@@ -1404,68 +1404,68 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="19" thickBot="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="26" t="s">
+      <c r="D26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18">
-      <c r="A27" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18">
-      <c r="A28" s="34"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1">
-      <c r="A29" s="34"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1">
-      <c r="A30" s="34"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="4" t="s">
         <v>12</v>
       </c>
@@ -1480,7 +1480,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="18">
-      <c r="A31" s="36"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="4" t="s">
         <v>40</v>
       </c>
@@ -1502,6 +1502,20 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="B24:B26"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B10"/>
@@ -1512,24 +1526,9 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A4:A10"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/user-resource-description.xlsx
+++ b/user-resource-description.xlsx
@@ -171,7 +171,7 @@
     <t>Action (id, actionName, description, author)</t>
   </si>
   <si>
-    <t>Issue (id, author, type, description, coords, comment, status, action)</t>
+    <t>Issue (id, author, type, description, coords, action)</t>
   </si>
 </sst>
 </file>
@@ -558,21 +558,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -587,45 +626,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
@@ -1019,7 +1019,7 @@
   </sheetPr>
   <dimension ref="A2:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:A19"/>
     </sheetView>
   </sheetViews>
@@ -1034,43 +1034,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="33" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="21"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1079,37 +1079,37 @@
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1124,8 +1124,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1142,8 +1142,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1158,8 +1158,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1" thickBot="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
@@ -1174,13 +1174,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="25" customHeight="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -1189,38 +1189,38 @@
       <c r="E11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="29" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="36"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6" ht="26" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="36"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="26" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="36"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1232,9 +1232,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="26" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="26"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="4" t="s">
         <v>5</v>
       </c>
@@ -1244,8 +1244,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="18">
-      <c r="A16" s="24"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="4" t="s">
         <v>12</v>
       </c>
@@ -1260,8 +1260,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="18">
-      <c r="A17" s="24"/>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1278,8 +1278,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1294,8 +1294,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="25"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="9" t="s">
         <v>20</v>
       </c>
@@ -1310,13 +1310,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="18">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -1325,37 +1325,37 @@
       <c r="E20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18">
-      <c r="A21" s="29"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="18">
-      <c r="A22" s="29"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" ht="18">
-      <c r="A23" s="29"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
@@ -1370,8 +1370,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="18">
-      <c r="A24" s="29"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1388,8 +1388,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="18">
-      <c r="A25" s="29"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="4" t="s">
         <v>19</v>
       </c>
@@ -1404,8 +1404,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="19" thickBot="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="9" t="s">
         <v>20</v>
       </c>
@@ -1420,13 +1420,13 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="18">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -1435,37 +1435,37 @@
       <c r="E27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18">
-      <c r="A28" s="29"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1">
-      <c r="A29" s="29"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="18"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1">
-      <c r="A30" s="29"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="4" t="s">
         <v>12</v>
       </c>
@@ -1480,7 +1480,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="18">
-      <c r="A31" s="30"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="4" t="s">
         <v>40</v>
       </c>
@@ -1502,20 +1502,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="B24:B26"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B10"/>
@@ -1526,6 +1512,20 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A4:A10"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/user-resource-description.xlsx
+++ b/user-resource-description.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>Issue (id, author, type, description, coords, action)</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Retrieve a list of issue by Action</t>
   </si>
 </sst>
 </file>
@@ -458,7 +464,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -516,8 +522,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -558,77 +566,83 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="59">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="5" builtinId="8" hidden="1"/>
@@ -657,6 +671,7 @@
     <cellStyle name="Collegamento ipertestuale" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="6" builtinId="9" hidden="1"/>
@@ -685,6 +700,7 @@
     <cellStyle name="Collegamento visitato" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1017,10 +1033,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F32"/>
+  <dimension ref="A2:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1034,43 +1050,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="33" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="34"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1079,37 +1095,37 @@
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1124,8 +1140,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1142,8 +1158,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1158,8 +1174,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1" thickBot="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
@@ -1174,13 +1190,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="25" customHeight="1">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -1189,38 +1205,38 @@
       <c r="E11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="35" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="29" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="23"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="26" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="23"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" ht="26" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="23"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1232,276 +1248,302 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="26" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="4" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="26" customHeight="1">
+      <c r="A16" s="26"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18">
-      <c r="A16" s="20"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="4" t="s">
+    <row r="17" spans="1:6" ht="18">
+      <c r="A17" s="26"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="D17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18">
-      <c r="A17" s="20"/>
-      <c r="B17" s="15" t="s">
+    <row r="18" spans="1:6" ht="18">
+      <c r="A18" s="26"/>
+      <c r="B18" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="4" t="s">
+    <row r="19" spans="1:6" ht="15" customHeight="1">
+      <c r="A19" s="26"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="9" t="s">
+    <row r="20" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A20" s="27"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="D20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18">
-      <c r="A20" s="26" t="s">
+    <row r="21" spans="1:6" ht="18">
+      <c r="A21" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B21" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F21" s="35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18">
-      <c r="A21" s="27"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="4" t="s">
+    <row r="22" spans="1:6" ht="18">
+      <c r="A22" s="31"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="1:6" ht="18">
-      <c r="A22" s="27"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="4" t="s">
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:6" ht="18">
+      <c r="A23" s="31"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="1:6" ht="18">
-      <c r="A23" s="27"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="4" t="s">
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:6" ht="18">
+      <c r="A24" s="31"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="D24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18">
-      <c r="A24" s="27"/>
-      <c r="B24" s="15" t="s">
+    <row r="25" spans="1:6" ht="18">
+      <c r="A25" s="31"/>
+      <c r="B25" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="D25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18">
-      <c r="A25" s="27"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="4" t="s">
+    <row r="26" spans="1:6" ht="18">
+      <c r="A26" s="31"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="D26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="19" thickBot="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="9" t="s">
+    <row r="27" spans="1:6" ht="19" thickBot="1">
+      <c r="A27" s="33"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="11" t="s">
+      <c r="D27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18">
-      <c r="A27" s="26" t="s">
+    <row r="28" spans="1:6" ht="18">
+      <c r="A28" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B28" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C28" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F28" s="29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18">
-      <c r="A28" s="27"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="4" t="s">
+    <row r="29" spans="1:6" ht="18">
+      <c r="A29" s="31"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="4" t="s">
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1">
+      <c r="A30" s="31"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="4" t="s">
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1">
+      <c r="A31" s="31"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="D31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18">
-      <c r="A31" s="28"/>
-      <c r="B31" s="4" t="s">
+    <row r="32" spans="1:6" ht="18">
+      <c r="A32" s="32"/>
+      <c r="B32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="D32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
-      <c r="A32" s="7"/>
+    <row r="33" spans="1:1" ht="15" customHeight="1">
+      <c r="A33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="B25:B27"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B10"/>
@@ -1512,23 +1554,10 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A4:A10"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/user-resource-description.xlsx
+++ b/user-resource-description.xlsx
@@ -572,21 +572,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -601,45 +640,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1035,8 +1035,8 @@
   </sheetPr>
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1050,43 +1050,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="33" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="35" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1095,37 +1095,37 @@
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1140,8 +1140,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1158,8 +1158,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1174,8 +1174,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1" thickBot="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
@@ -1190,13 +1190,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="25" customHeight="1">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -1205,38 +1205,38 @@
       <c r="E11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="29" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="38"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6" ht="26" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="38"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6" ht="26" customHeight="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="38"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1248,9 +1248,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="26" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="38"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="14" t="s">
         <v>51</v>
       </c>
@@ -1260,9 +1260,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="26" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="28"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1272,8 +1272,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="18">
-      <c r="A17" s="26"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
@@ -1288,8 +1288,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="18">
-      <c r="A18" s="26"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1306,8 +1306,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
-      <c r="A19" s="26"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
@@ -1322,8 +1322,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="9" t="s">
         <v>20</v>
       </c>
@@ -1338,13 +1338,13 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="18">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="12" t="s">
@@ -1353,37 +1353,37 @@
       <c r="E21" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18">
-      <c r="A22" s="31"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" ht="18">
-      <c r="A23" s="31"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="20"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6" ht="18">
-      <c r="A24" s="31"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="4" t="s">
         <v>12</v>
       </c>
@@ -1398,8 +1398,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="18">
-      <c r="A25" s="31"/>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="29"/>
+      <c r="B25" s="17" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1416,8 +1416,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="18">
-      <c r="A26" s="31"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="4" t="s">
         <v>19</v>
       </c>
@@ -1432,8 +1432,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="19" thickBot="1">
-      <c r="A27" s="33"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="9" t="s">
         <v>20</v>
       </c>
@@ -1448,13 +1448,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="18">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -1463,37 +1463,37 @@
       <c r="E28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18">
-      <c r="A29" s="31"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="20"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1">
-      <c r="A30" s="31"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="20"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1">
-      <c r="A31" s="31"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="4" t="s">
         <v>12</v>
       </c>
@@ -1508,7 +1508,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="18">
-      <c r="A32" s="32"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="4" t="s">
         <v>40</v>
       </c>
@@ -1530,20 +1530,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="B25:B27"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B10"/>
@@ -1554,10 +1540,24 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A4:A10"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="C11:C16"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="49" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
